--- a/testData/myUsers.xlsx
+++ b/testData/myUsers.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="123">
   <si>
     <t>testowy_e-mail@test.pl</t>
   </si>
@@ -400,6 +400,15 @@
   </si>
   <si>
     <t>Murphy</t>
+  </si>
+  <si>
+    <t>vern.erdman@gmail.com</t>
+  </si>
+  <si>
+    <t>rajjyjm68</t>
+  </si>
+  <si>
+    <t>Linwood</t>
   </si>
 </sst>
 </file>
@@ -740,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
@@ -1396,6 +1405,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="I25" t="b" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
